--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1143359.432483341</v>
+        <v>-1146208.854672669</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.0380613170257</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>372.3011497172426</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>319.0035107334368</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>36.39183767369498</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>169.1596966100574</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>49.2621366846902</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>78.40333552909871</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5000960026868</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>51.49818081770945</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>23.57659527683554</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>71.61755224417334</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.7309253071371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.25298866282627</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>97.77174959685448</v>
+        <v>101.9268484343559</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.38324202937314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.795251606876045</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>13.37642554686322</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>43.55707494718542</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2639524613327</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.959001240238</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545302</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261736</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.007122146533</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C2" t="n">
-        <v>1585.044605206121</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D2" t="n">
-        <v>1226.77890659937</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E2" t="n">
-        <v>840.9906540011261</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F2" t="n">
-        <v>430.0047492115186</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.752638628377</v>
+        <v>2319.894633131103</v>
       </c>
       <c r="Y2" t="n">
-        <v>2224.752638628377</v>
+        <v>1929.755301155291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.991915879943</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.029398939532</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.029398939532</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="E5" t="n">
-        <v>796.2411463412873</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>521.6665239471172</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>103.7027158453041</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>133.1382702335955</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2500993552354</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.929261481748</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C8" t="n">
-        <v>806.9667445413368</v>
+        <v>1610.523846670118</v>
       </c>
       <c r="D8" t="n">
-        <v>806.9667445413368</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="E8" t="n">
-        <v>806.9667445413368</v>
+        <v>1200.239783601035</v>
       </c>
       <c r="F8" t="n">
-        <v>395.9808397517292</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G8" t="n">
         <v>372.1660970478549</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.668433521682</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>1562.52910154587</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.4458836177365</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>346.4458836177365</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>196.3292442054008</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>196.3292442054008</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>981.5367014169078</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>981.5367014169078</v>
       </c>
       <c r="U10" t="n">
-        <v>557.2852021097942</v>
+        <v>981.5367014169078</v>
       </c>
       <c r="V10" t="n">
-        <v>557.2852021097942</v>
+        <v>726.852213211021</v>
       </c>
       <c r="W10" t="n">
-        <v>557.2852021097942</v>
+        <v>726.852213211021</v>
       </c>
       <c r="X10" t="n">
-        <v>557.2852021097942</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.4458836177365</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.4182386381636</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1028.490320362745</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.138785192985</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5598,19 +5598,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556945</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E19" t="n">
-        <v>417.7969033733013</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F19" t="n">
-        <v>270.906955875391</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G19" t="n">
-        <v>103.7108565902709</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,7 +6865,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,16 +7357,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8532,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>277.2675446358076</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>41.48302030355241</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>132.0701782543731</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>50.72758994503226</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.57899151911103</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>69.47507150177336</v>
+        <v>65.31997266427197</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="H19" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>152.1477127454056</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>102.8768876993838</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.92052192791149</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>115.4620467826932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-8.262279876946173e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26335,13 +26335,13 @@
         <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363164</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977622</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977627</v>
+        <v>13668.39582977624</v>
       </c>
       <c r="N4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-648213.03399896</v>
+        <v>-648573.1170146775</v>
       </c>
       <c r="C6" t="n">
         <v>-108047.0953069791</v>
@@ -26528,40 +26528,40 @@
         <v>-263850.901400774</v>
       </c>
       <c r="E6" t="n">
-        <v>-696244.7728411451</v>
+        <v>-696279.5107665805</v>
       </c>
       <c r="F6" t="n">
-        <v>74807.91853966167</v>
+        <v>74773.18061422557</v>
       </c>
       <c r="G6" t="n">
-        <v>74807.9185396614</v>
+        <v>74773.18061422594</v>
       </c>
       <c r="H6" t="n">
-        <v>74807.91853966146</v>
+        <v>74773.18061422577</v>
       </c>
       <c r="I6" t="n">
-        <v>74807.91853966146</v>
+        <v>74773.18061422554</v>
       </c>
       <c r="J6" t="n">
-        <v>-101615.3006529314</v>
+        <v>-101650.038578367</v>
       </c>
       <c r="K6" t="n">
-        <v>74807.91853966155</v>
+        <v>74773.18061422565</v>
       </c>
       <c r="L6" t="n">
-        <v>48474.16854214028</v>
+        <v>48474.1685421404</v>
       </c>
       <c r="M6" t="n">
-        <v>-56306.62417228653</v>
+        <v>-56306.62417228649</v>
       </c>
       <c r="N6" t="n">
         <v>67901.88653577206</v>
       </c>
       <c r="O6" t="n">
-        <v>67901.88653577206</v>
+        <v>67901.88653577201</v>
       </c>
       <c r="P6" t="n">
-        <v>67901.88653577201</v>
+        <v>67901.88653577204</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.6957803464549</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>119.1539892539162</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.95978732560565</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>130.9179645853559</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>237.7163491316541</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>274.6606360796669</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>88.9064667299522</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>50.78177823929096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>330.4321892545523</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>389.3403086691013</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,10 +28029,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.7483296559453</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.853728044957677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,10 +32318,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>458.5779853980346</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,10 +35966,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
